--- a/Example.xlsx
+++ b/Example.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Подпись оси x</t>
   </si>
   <si>
     <t>Подпись оси y</t>
+  </si>
+  <si>
+    <t>Подпись оси х</t>
+  </si>
+  <si>
+    <t>Подпись оси у</t>
   </si>
 </sst>
 </file>
@@ -27,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -46,12 +52,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,14 +150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,11 +172,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,90 +201,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,43 +211,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,127 +361,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,32 +405,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,26 +428,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,151 +461,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,105 +1036,183 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
-    <col min="3" max="11" width="8.57407407407407" customWidth="1"/>
+    <col min="3" max="3" width="13.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="5" max="11" width="8.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:2">
+    <row r="1" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" spans="1:2">
+    <row r="2" ht="13.5" customHeight="1" spans="1:4">
       <c r="A2">
         <v>1.36609165380237</v>
       </c>
       <c r="B2">
         <v>4.49980967033027</v>
       </c>
+      <c r="C2">
+        <v>1.36609165380237</v>
+      </c>
+      <c r="D2">
+        <f>2*B2</f>
+        <v>8.99961934066054</v>
+      </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" spans="1:2">
+    <row r="3" ht="13.5" customHeight="1" spans="1:4">
       <c r="A3">
         <v>1.32175583998232</v>
       </c>
       <c r="B3">
         <v>4.56434819146784</v>
       </c>
+      <c r="C3">
+        <v>1.32175583998232</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">2*B3</f>
+        <v>9.12869638293568</v>
+      </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" spans="1:2">
+    <row r="4" ht="13.5" customHeight="1" spans="1:4">
       <c r="A4">
         <v>1.26976054486394</v>
       </c>
       <c r="B4">
         <v>4.62497281328427</v>
       </c>
+      <c r="C4">
+        <v>1.26976054486394</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>9.24994562656854</v>
+      </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="1:2">
+    <row r="5" ht="13.5" customHeight="1" spans="1:4">
       <c r="A5">
         <v>1.21491274436427</v>
       </c>
       <c r="B5">
         <v>4.70048036579242</v>
       </c>
+      <c r="C5">
+        <v>1.21491274436427</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9.40096073158484</v>
+      </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" spans="1:2">
+    <row r="6" ht="13.5" customHeight="1" spans="1:4">
       <c r="A6">
         <v>1.15373158788919</v>
       </c>
       <c r="B6">
         <v>4.72738781871234</v>
       </c>
+      <c r="C6">
+        <v>1.15373158788919</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>9.45477563742468</v>
+      </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" spans="1:2">
+    <row r="7" ht="13.5" customHeight="1" spans="1:4">
       <c r="A7">
         <v>1.07158361628019</v>
       </c>
       <c r="B7">
         <v>4.77068462446567</v>
       </c>
+      <c r="C7">
+        <v>1.07158361628019</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>9.54136924893134</v>
+      </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" spans="1:2">
+    <row r="8" ht="13.5" customHeight="1" spans="1:4">
       <c r="A8">
         <v>1.00430160919687</v>
       </c>
       <c r="B8">
         <v>4.79579054559674</v>
       </c>
+      <c r="C8">
+        <v>1.00430160919687</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9.59158109119348</v>
+      </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" spans="1:2">
+    <row r="9" ht="13.5" customHeight="1" spans="1:4">
       <c r="A9">
         <v>0.920282753143692</v>
       </c>
       <c r="B9">
         <v>4.78749174278205</v>
       </c>
+      <c r="C9">
+        <v>0.920282753143692</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9.5749834855641</v>
+      </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" spans="1:2">
+    <row r="10" ht="13.5" customHeight="1" spans="1:4">
       <c r="A10">
         <v>0.828551817566148</v>
       </c>
       <c r="B10">
         <v>4.84418708645859</v>
       </c>
+      <c r="C10">
+        <v>0.828551817566148</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9.68837417291718</v>
+      </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" spans="1:2">
+    <row r="11" ht="13.5" customHeight="1" spans="1:4">
       <c r="A11">
         <v>0.72270598280149</v>
       </c>
       <c r="B11">
         <v>4.9416424226093</v>
+      </c>
+      <c r="C11">
+        <v>0.72270598280149</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9.8832848452186</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1"/>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -52,7 +52,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,129 +180,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,12 +211,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,7 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,31 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,103 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,48 +402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,10 +422,47 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -488,165 +483,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
@@ -1067,152 +1067,152 @@
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:4">
       <c r="A2">
-        <v>1.36609165380237</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>4.49980967033027</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>1.36609165380237</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>2*B2</f>
-        <v>8.99961934066054</v>
+        <f t="shared" ref="D2:D11" si="0">B2+1</f>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:4">
       <c r="A3">
-        <v>1.32175583998232</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4.56434819146784</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>1.32175583998232</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">2*B3</f>
-        <v>9.12869638293568</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:4">
       <c r="A4">
-        <v>1.26976054486394</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>4.62497281328427</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1.26976054486394</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>9.24994562656854</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:4">
       <c r="A5">
-        <v>1.21491274436427</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4.70048036579242</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>1.21491274436427</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>9.40096073158484</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:4">
       <c r="A6">
-        <v>1.15373158788919</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4.72738781871234</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>1.15373158788919</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9.45477563742468</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:4">
       <c r="A7">
-        <v>1.07158361628019</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>4.77068462446567</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>1.07158361628019</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>9.54136924893134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:4">
       <c r="A8">
-        <v>1.00430160919687</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.79579054559674</v>
+        <v>17.5</v>
       </c>
       <c r="C8">
-        <v>1.00430160919687</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>9.59158109119348</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:4">
       <c r="A9">
-        <v>0.920282753143692</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>4.78749174278205</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.920282753143692</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>9.5749834855641</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:4">
       <c r="A10">
-        <v>0.828551817566148</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>4.84418708645859</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0.828551817566148</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>9.68837417291718</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:4">
       <c r="A11">
-        <v>0.72270598280149</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>4.9416424226093</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0.72270598280149</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>9.8832848452186</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1"/>

--- a/Example.xlsx
+++ b/Example.xlsx
@@ -33,10 +33,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -58,22 +58,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -83,15 +121,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,30 +172,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -136,67 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +211,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -223,13 +307,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,6 +331,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,19 +361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,109 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +402,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,6 +440,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,45 +483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -505,15 +505,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,130 +523,130 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
@@ -1076,8 +1076,8 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D11" si="0">B2+1</f>
-        <v>11</v>
+        <f t="shared" ref="D2:D10" si="0">B2+A2/2</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:4">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:4">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:4">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:4">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="1:4">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>18.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:4">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:4">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:4">
@@ -1211,8 +1211,8 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>B11+A11/2</f>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1"/>
